--- a/Longitudinal_induction_analysis/EPM/EPM_longitudinal_data.xlsx
+++ b/Longitudinal_induction_analysis/EPM/EPM_longitudinal_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastuckert/Documents/TDP control files/Longitudinal induction analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastuckert/Documents/GitHub/TDPBehaviorAnalysis/Longitudinal_induction_analysis/EPM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBFEF1D-CC89-6246-B8E4-498304E3B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5A3AF-6045-624A-A00A-7EB201596321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14100" yWindow="500" windowWidth="14700" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>Distance moved</t>
   </si>
@@ -98,6 +98,27 @@
   </si>
   <si>
     <t>128</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>281</t>
   </si>
 </sst>
 </file>
@@ -449,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1560,17 +1581,929 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N39" s="3"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>2205.61</v>
+      </c>
+      <c r="C26">
+        <v>3.68608</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>53.54</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>41.08</v>
+      </c>
+      <c r="H26">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>183.04</v>
+      </c>
+      <c r="J26">
+        <v>26</v>
+      </c>
+      <c r="K26">
+        <v>190.14</v>
+      </c>
+      <c r="L26">
+        <v>78</v>
+      </c>
+      <c r="M26">
+        <v>131.18</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1888.83</v>
+      </c>
+      <c r="C27">
+        <v>3.1545700000000001</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>60.02</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>30.36</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>169.16</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>258.98</v>
+      </c>
+      <c r="L27">
+        <v>54</v>
+      </c>
+      <c r="M27">
+        <v>81.02</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2141.38</v>
+      </c>
+      <c r="C28">
+        <v>3.5691199999999998</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>38.991300000000003</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>10.0829</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>219.98400000000001</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>264.17700000000002</v>
+      </c>
+      <c r="L28">
+        <v>58</v>
+      </c>
+      <c r="M28">
+        <v>66.779399999999995</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1864.88</v>
+      </c>
+      <c r="C29">
+        <v>3.1107499999999999</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>44.893000000000001</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>17.7852</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>132.79900000000001</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <v>356.06299999999999</v>
+      </c>
+      <c r="L29">
+        <v>35</v>
+      </c>
+      <c r="M29">
+        <v>48.213999999999999</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>2919.99</v>
+      </c>
+      <c r="C30">
+        <v>4.89602</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>119.1</v>
+      </c>
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>144.62</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>37.44</v>
+      </c>
+      <c r="J30">
+        <v>29</v>
+      </c>
+      <c r="K30">
+        <v>123.64</v>
+      </c>
+      <c r="L30">
+        <v>91</v>
+      </c>
+      <c r="M30">
+        <v>172.38</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>1709.6</v>
+      </c>
+      <c r="C31">
+        <v>2.8499300000000001</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>33.009599999999999</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>9.6027799999999992</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>347.08100000000002</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>117.614</v>
+      </c>
+      <c r="L31">
+        <v>45</v>
+      </c>
+      <c r="M31">
+        <v>92.726900000000001</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>1591.63</v>
+      </c>
+      <c r="C32">
+        <v>2.6606900000000002</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>38.92</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>59.4</v>
+      </c>
+      <c r="H32">
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <v>266.42</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>88.9</v>
+      </c>
+      <c r="L32">
+        <v>59</v>
+      </c>
+      <c r="M32">
+        <v>145</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>1519.31</v>
+      </c>
+      <c r="C33">
+        <v>2.5337000000000001</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>12.72</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>28.32</v>
+      </c>
+      <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>235.48</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>232.28</v>
+      </c>
+      <c r="L33">
+        <v>34</v>
+      </c>
+      <c r="M33">
+        <v>91.22</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>1446.14</v>
+      </c>
+      <c r="C34">
+        <v>2.41805</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>71.56</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>21.86</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="J34">
+        <v>17</v>
+      </c>
+      <c r="K34">
+        <v>337.82</v>
+      </c>
+      <c r="L34">
+        <v>44</v>
+      </c>
+      <c r="M34">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>1260.92</v>
+      </c>
+      <c r="C35">
+        <v>2.1027999999999998</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>45.28</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>5.6</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>318.48</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>197.74</v>
+      </c>
+      <c r="L35">
+        <v>29</v>
+      </c>
+      <c r="M35">
+        <v>32.92</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>2523.87</v>
+      </c>
+      <c r="C36">
+        <v>4.2100999999999997</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>150.82</v>
+      </c>
+      <c r="F36">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>105.78</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>118.36</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>167.44</v>
+      </c>
+      <c r="L36">
+        <v>64</v>
+      </c>
+      <c r="M36">
+        <v>57.6</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>1964.97</v>
+      </c>
+      <c r="C37">
+        <v>3.2782200000000001</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>60.94</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>19.02</v>
+      </c>
+      <c r="H37">
+        <v>21</v>
+      </c>
+      <c r="I37">
+        <v>335.62</v>
+      </c>
+      <c r="J37">
+        <v>12</v>
+      </c>
+      <c r="K37">
+        <v>94.84</v>
+      </c>
+      <c r="L37">
+        <v>56</v>
+      </c>
+      <c r="M37">
+        <v>89.16</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>1616.27</v>
+      </c>
+      <c r="C38">
+        <v>2.6953999999999998</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>16.12</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>3.68</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>334.28</v>
+      </c>
+      <c r="J38">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>206.74</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>39.04</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>1630.18</v>
+      </c>
+      <c r="C39">
+        <v>2.7204199999999998</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>41.92</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>20.56</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>378.62</v>
+      </c>
+      <c r="J39">
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <v>112.84</v>
+      </c>
+      <c r="L39">
+        <v>40</v>
+      </c>
+      <c r="M39">
+        <v>45.8</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>1510.09</v>
+      </c>
+      <c r="C40">
+        <v>2.52312</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>10.64</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>5.6</v>
+      </c>
+      <c r="H40">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>255.92</v>
+      </c>
+      <c r="J40">
+        <v>26</v>
+      </c>
+      <c r="K40">
+        <v>224.54</v>
+      </c>
+      <c r="L40">
+        <v>54</v>
+      </c>
+      <c r="M40">
+        <v>102.26</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>2304.36</v>
+      </c>
+      <c r="C41">
+        <v>3.84829</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>105.18</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>42.24</v>
+      </c>
+      <c r="H41">
+        <v>23</v>
+      </c>
+      <c r="I41">
+        <v>255.54</v>
+      </c>
+      <c r="J41">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <v>115.88</v>
+      </c>
+      <c r="L41">
+        <v>70</v>
+      </c>
+      <c r="M41">
+        <v>80.7</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>2371.2600000000002</v>
+      </c>
+      <c r="C42">
+        <v>3.95553</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>190.58</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>72.22</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>139.02000000000001</v>
+      </c>
+      <c r="J42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>104.46</v>
+      </c>
+      <c r="L42">
+        <v>65</v>
+      </c>
+      <c r="M42">
+        <v>93.66</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>2742.53</v>
+      </c>
+      <c r="C43">
+        <v>4.5808</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>87.4</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>12.3</v>
+      </c>
+      <c r="H43">
+        <v>25</v>
+      </c>
+      <c r="I43">
+        <v>225.76</v>
+      </c>
+      <c r="J43">
+        <v>31</v>
+      </c>
+      <c r="K43">
+        <v>188.42</v>
+      </c>
+      <c r="L43">
+        <v>71</v>
+      </c>
+      <c r="M43">
+        <v>85.58</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>2250.9899999999998</v>
+      </c>
+      <c r="C44">
+        <v>3.7520600000000002</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>83.524199999999993</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>26.747800000000002</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>100.809</v>
+      </c>
+      <c r="J44">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>309.47000000000003</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>79.483000000000004</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>2353.67</v>
+      </c>
+      <c r="C45">
+        <v>3.92841</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>59.88</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>30.54</v>
+      </c>
+      <c r="H45">
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="J45">
+        <v>40</v>
+      </c>
+      <c r="K45">
+        <v>214.58</v>
+      </c>
+      <c r="L45">
+        <v>95</v>
+      </c>
+      <c r="M45">
+        <v>145.34</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>2547.8200000000002</v>
+      </c>
+      <c r="C46">
+        <v>4.3150300000000001</v>
+      </c>
+      <c r="D46">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>140.221</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>45.493200000000002</v>
+      </c>
+      <c r="H46">
+        <v>26</v>
+      </c>
+      <c r="I46">
+        <v>85.444800000000001</v>
+      </c>
+      <c r="J46">
+        <v>30</v>
+      </c>
+      <c r="K46">
+        <v>239.91</v>
+      </c>
+      <c r="L46">
+        <v>86</v>
+      </c>
+      <c r="M46">
+        <v>79.903199999999998</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
